--- a/js/Rapport Inscription 2020-10-10 à 2020-10-22.xlsx
+++ b/js/Rapport Inscription 2020-10-10 à 2020-10-22.xlsx
@@ -11,87 +11,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="28">
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>Nom</t>
-  </si>
-  <si>
-    <t>Prenom</t>
-  </si>
-  <si>
-    <t>Telephone</t>
-  </si>
-  <si>
-    <t>Mail</t>
-  </si>
-  <si>
-    <t>Pays</t>
-  </si>
-  <si>
-    <t>Province</t>
-  </si>
-  <si>
-    <t>Programme</t>
-  </si>
-  <si>
-    <t>Moyen de Communication</t>
-  </si>
-  <si>
-    <t>Nombre d'invités</t>
-  </si>
-  <si>
-    <t>Sierra</t>
-  </si>
-  <si>
-    <t>Juan</t>
-  </si>
-  <si>
-    <t>4182629147</t>
-  </si>
-  <si>
-    <t>fer@gmail.ocm</t>
-  </si>
-  <si>
-    <t>Colombie</t>
-  </si>
-  <si>
-    <t>undefined</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>Nombre de personnes inscrites</t>
+  </si>
+  <si>
+    <t>Description du programme</t>
   </si>
   <si>
     <t>AEC - Composition et effets spéciaux pour vidéo numérique NWY.16.</t>
   </si>
   <si>
-    <t>Bouche à oreilles,réseaux sociaux</t>
+    <t>AEC - Production 3D pour jeux vidéo NTL.12</t>
   </si>
   <si>
     <t>AEC - Techniques de montage et d’habillage informatique NWY.00</t>
   </si>
   <si>
-    <t>AEC - Production 3D pour jeux vidéo NTL.12</t>
+    <t>AEC – Spécialiste en réalité virtuelle et augmentée NTL.1K</t>
   </si>
   <si>
     <t>DEC - Techniques de l’informatique, profil programmation nouveaux médias 420.B0</t>
   </si>
   <si>
     <t>DEC - Techniques de production et de postproduction télévisuelles 589.AB</t>
-  </si>
-  <si>
-    <t>Arias</t>
-  </si>
-  <si>
-    <t>Maria</t>
-  </si>
-  <si>
-    <t>maria@gmail.com</t>
-  </si>
-  <si>
-    <t>web,réseaux sociaux,journal</t>
-  </si>
-  <si>
-    <t>AEC – Spécialiste en réalité virtuelle et augmentée NTL.1K</t>
   </si>
   <si>
     <t>DEC - Technologie de l’estimation et de l’évaluation en bâtiment spécialisation en évaluation immobilière 221.DB</t>
@@ -133,10 +76,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -476,368 +418,74 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:B8"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="25" customWidth="1"/>
-    <col min="6" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="50" customWidth="1"/>
-    <col min="9" max="9" width="22" customWidth="1"/>
+    <col min="1" max="2" width="50" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
         <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>44123.43099537037</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>44123.43099537037</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>44123.43099537037</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>44123.43099537037</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>44123.43099537037</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>44123.68408564814</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>44123.68408564814</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>44123.68408564814</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>44123.68408564814</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" t="s">
-        <v>20</v>
-      </c>
-      <c r="I10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>44123.68408564814</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" t="s">
-        <v>21</v>
-      </c>
-      <c r="I11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>44123.68408564814</v>
-      </c>
-      <c r="B12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" t="s">
-        <v>27</v>
-      </c>
-      <c r="I12" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
